--- a/sqlalchemy_notes.xlsx
+++ b/sqlalchemy_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Conway\OneDrive\Documents\01 DU Bootcamp\sqlalchemy-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719E8AB7-C292-4A7D-A328-AF464A2A51F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC6B56-14D2-4801-8A17-6ED9B4BCC9D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="20640" windowHeight="13200" xr2:uid="{E6366702-A722-4697-B9E1-B54306F9FBA6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{E6366702-A722-4697-B9E1-B54306F9FBA6}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -311,13 +311,13 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,6 +418,50 @@
         <a:xfrm>
           <a:off x="7296150" y="351917"/>
           <a:ext cx="9237412" cy="4942997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>103143</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>18550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B0A0DE-0946-4B0B-AE7D-2FCFCEA0B1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="5610225"/>
+          <a:ext cx="13057143" cy="4000000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D5665-D71A-493F-8753-EA41CA3F9B54}">
   <dimension ref="A3:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -743,7 +787,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -775,12 +819,12 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -804,7 +848,7 @@
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -873,12 +917,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -900,7 +944,7 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>40179</v>
       </c>
       <c r="C5" s="1">
@@ -915,7 +959,7 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>40180</v>
       </c>
       <c r="C6" s="1">
@@ -930,7 +974,7 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>40181</v>
       </c>
       <c r="C7" s="1">
@@ -945,7 +989,7 @@
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>40182</v>
       </c>
       <c r="C8" s="1">
@@ -960,7 +1004,7 @@
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>40184</v>
       </c>
       <c r="C9" s="1"/>
@@ -971,7 +1015,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -984,13 +1028,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -1215,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72283A96-EE9E-4481-9B34-FCACAB74EF6B}">
   <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="Y40" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
@@ -1306,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1906BE70-BA9D-4590-81C0-7D7E7C5E73C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
